--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Adam9-Itgav.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Adam9-Itgav.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.070632</v>
+        <v>9.462749333333333</v>
       </c>
       <c r="H2">
-        <v>30.211896</v>
+        <v>28.388248</v>
       </c>
       <c r="I2">
-        <v>0.07634150103324112</v>
+        <v>0.07254428564686972</v>
       </c>
       <c r="J2">
-        <v>0.08026042296304617</v>
+        <v>0.07439525120506714</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>10.68421466666667</v>
+        <v>13.89934866666667</v>
       </c>
       <c r="N2">
-        <v>32.052644</v>
+        <v>41.69804600000001</v>
       </c>
       <c r="O2">
-        <v>0.04705285980693975</v>
+        <v>0.04853507553134179</v>
       </c>
       <c r="P2">
-        <v>0.04892736897547583</v>
+        <v>0.04999273878390351</v>
       </c>
       <c r="Q2">
-        <v>107.5967941170027</v>
+        <v>131.5260523292676</v>
       </c>
       <c r="R2">
-        <v>968.3711470530241</v>
+        <v>1183.734470963408</v>
       </c>
       <c r="S2">
-        <v>0.003592085945568441</v>
+        <v>0.003520942383238056</v>
       </c>
       <c r="T2">
-        <v>0.003926931328440713</v>
+        <v>0.003719222360257804</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.070632</v>
+        <v>9.462749333333333</v>
       </c>
       <c r="H3">
-        <v>30.211896</v>
+        <v>28.388248</v>
       </c>
       <c r="I3">
-        <v>0.07634150103324112</v>
+        <v>0.07254428564686972</v>
       </c>
       <c r="J3">
-        <v>0.08026042296304617</v>
+        <v>0.07439525120506714</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>211.087055</v>
       </c>
       <c r="O3">
-        <v>0.3098730203341347</v>
+        <v>0.245697991654417</v>
       </c>
       <c r="P3">
-        <v>0.3222178559101571</v>
+        <v>0.253077086664408</v>
       </c>
       <c r="Q3">
-        <v>708.5933502895866</v>
+        <v>665.8212963255155</v>
       </c>
       <c r="R3">
-        <v>6377.34015260628</v>
+        <v>5992.39166692964</v>
       </c>
       <c r="S3">
-        <v>0.02365617150201189</v>
+        <v>0.01782398528944024</v>
       </c>
       <c r="T3">
-        <v>0.02586134140159507</v>
+        <v>0.01882773343664518</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>10.070632</v>
+        <v>9.462749333333333</v>
       </c>
       <c r="H4">
-        <v>30.211896</v>
+        <v>28.388248</v>
       </c>
       <c r="I4">
-        <v>0.07634150103324112</v>
+        <v>0.07254428564686972</v>
       </c>
       <c r="J4">
-        <v>0.08026042296304617</v>
+        <v>0.07439525120506714</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>59.09107466666666</v>
+        <v>82.007665</v>
       </c>
       <c r="N4">
-        <v>177.273224</v>
+        <v>246.022995</v>
       </c>
       <c r="O4">
-        <v>0.2602347611759026</v>
+        <v>0.2863622109480123</v>
       </c>
       <c r="P4">
-        <v>0.2706020894912812</v>
+        <v>0.2949625822722868</v>
       </c>
       <c r="Q4">
-        <v>595.0844674525226</v>
+        <v>776.0179773069733</v>
       </c>
       <c r="R4">
-        <v>5355.760207072703</v>
+        <v>6984.16179576276</v>
       </c>
       <c r="S4">
-        <v>0.01986671228919542</v>
+        <v>0.02077394202948177</v>
       </c>
       <c r="T4">
-        <v>0.0217186381572543</v>
+        <v>0.02194381540424206</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>10.070632</v>
+        <v>9.462749333333333</v>
       </c>
       <c r="H5">
-        <v>30.211896</v>
+        <v>28.388248</v>
       </c>
       <c r="I5">
-        <v>0.07634150103324112</v>
+        <v>0.07254428564686972</v>
       </c>
       <c r="J5">
-        <v>0.08026042296304617</v>
+        <v>0.07439525120506714</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>26.0983795</v>
+        <v>25.0501465</v>
       </c>
       <c r="N5">
-        <v>52.196759</v>
+        <v>50.100293</v>
       </c>
       <c r="O5">
-        <v>0.1149362335102661</v>
+        <v>0.0874724982879541</v>
       </c>
       <c r="P5">
-        <v>0.07967673702415903</v>
+        <v>0.06006638442832619</v>
       </c>
       <c r="Q5">
-        <v>262.827175740844</v>
+        <v>237.0432570927773</v>
       </c>
       <c r="R5">
-        <v>1576.963054445064</v>
+        <v>1422.259542556664</v>
       </c>
       <c r="S5">
-        <v>0.008774404589280825</v>
+        <v>0.006345629902046665</v>
       </c>
       <c r="T5">
-        <v>0.006394888613874405</v>
+        <v>0.00446865375852546</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>10.070632</v>
+        <v>9.462749333333333</v>
       </c>
       <c r="H6">
-        <v>30.211896</v>
+        <v>28.388248</v>
       </c>
       <c r="I6">
-        <v>0.07634150103324112</v>
+        <v>0.07254428564686972</v>
       </c>
       <c r="J6">
-        <v>0.08026042296304617</v>
+        <v>0.07439525120506714</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>60.83231733333334</v>
+        <v>95.05788666666668</v>
       </c>
       <c r="N6">
-        <v>182.496952</v>
+        <v>285.17366</v>
       </c>
       <c r="O6">
-        <v>0.2679031251727568</v>
+        <v>0.3319322235782747</v>
       </c>
       <c r="P6">
-        <v>0.2785759485989269</v>
+        <v>0.3419012078510756</v>
       </c>
       <c r="Q6">
-        <v>612.6198815712214</v>
+        <v>899.5089536830756</v>
       </c>
       <c r="R6">
-        <v>5513.578934140993</v>
+        <v>8095.58058314768</v>
       </c>
       <c r="S6">
-        <v>0.02045212670718454</v>
+        <v>0.02407978604266298</v>
       </c>
       <c r="T6">
-        <v>0.02235862346188168</v>
+        <v>0.02543582624539665</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>126.44965</v>
       </c>
       <c r="I7">
-        <v>0.3195216905992255</v>
+        <v>0.3231336970688258</v>
       </c>
       <c r="J7">
-        <v>0.3359240476840365</v>
+        <v>0.3313784449305509</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>10.68421466666667</v>
+        <v>13.89934866666667</v>
       </c>
       <c r="N7">
-        <v>32.052644</v>
+        <v>41.69804600000001</v>
       </c>
       <c r="O7">
-        <v>0.04705285980693975</v>
+        <v>0.04853507553134179</v>
       </c>
       <c r="P7">
-        <v>0.04892736897547583</v>
+        <v>0.04999273878390351</v>
       </c>
       <c r="Q7">
-        <v>450.3384017082889</v>
+        <v>585.8559247093223</v>
       </c>
       <c r="R7">
-        <v>4053.0456153746</v>
+        <v>5272.703322383901</v>
       </c>
       <c r="S7">
-        <v>0.01503440931304174</v>
+        <v>0.01568331839395718</v>
       </c>
       <c r="T7">
-        <v>0.01643587982877219</v>
+        <v>0.01656651603602918</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>126.44965</v>
       </c>
       <c r="I8">
-        <v>0.3195216905992255</v>
+        <v>0.3231336970688258</v>
       </c>
       <c r="J8">
-        <v>0.3359240476840365</v>
+        <v>0.3313784449305509</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>211.087055</v>
       </c>
       <c r="O8">
-        <v>0.3098730203341347</v>
+        <v>0.245697991654417</v>
       </c>
       <c r="P8">
-        <v>0.3222178559101571</v>
+        <v>0.253077086664408</v>
       </c>
       <c r="Q8">
         <v>2965.764913808972</v>
@@ -948,10 +948,10 @@
         <v>26691.88422428075</v>
       </c>
       <c r="S8">
-        <v>0.09901115132825089</v>
+        <v>0.07939330040567728</v>
       </c>
       <c r="T8">
-        <v>0.1082407263934116</v>
+        <v>0.08386429142640577</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>126.44965</v>
       </c>
       <c r="I9">
-        <v>0.3195216905992255</v>
+        <v>0.3231336970688258</v>
       </c>
       <c r="J9">
-        <v>0.3359240476840365</v>
+        <v>0.3313784449305509</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>59.09107466666666</v>
+        <v>82.007665</v>
       </c>
       <c r="N9">
-        <v>177.273224</v>
+        <v>246.022995</v>
       </c>
       <c r="O9">
-        <v>0.2602347611759026</v>
+        <v>0.2863622109480123</v>
       </c>
       <c r="P9">
-        <v>0.2706020894912812</v>
+        <v>0.2949625822722868</v>
       </c>
       <c r="Q9">
-        <v>2490.681903241289</v>
+        <v>3456.613512189083</v>
       </c>
       <c r="R9">
-        <v>22416.1371291716</v>
+        <v>31109.52160970175</v>
       </c>
       <c r="S9">
-        <v>0.08315065084361008</v>
+        <v>0.09253327992443422</v>
       </c>
       <c r="T9">
-        <v>0.09090174921366907</v>
+        <v>0.09774424182609005</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>126.44965</v>
       </c>
       <c r="I10">
-        <v>0.3195216905992255</v>
+        <v>0.3231336970688258</v>
       </c>
       <c r="J10">
-        <v>0.3359240476840365</v>
+        <v>0.3313784449305509</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>26.0983795</v>
+        <v>25.0501465</v>
       </c>
       <c r="N10">
-        <v>52.196759</v>
+        <v>50.100293</v>
       </c>
       <c r="O10">
-        <v>0.1149362335102661</v>
+        <v>0.0874724982879541</v>
       </c>
       <c r="P10">
-        <v>0.07967673702415903</v>
+        <v>0.06006638442832619</v>
       </c>
       <c r="Q10">
-        <v>1100.043651114058</v>
+        <v>1055.860752457908</v>
       </c>
       <c r="R10">
-        <v>6600.26190668435</v>
+        <v>6335.16451474745</v>
       </c>
       <c r="S10">
-        <v>0.03672461964230759</v>
+        <v>0.02826531176363315</v>
       </c>
       <c r="T10">
-        <v>0.02676533200741204</v>
+        <v>0.01990470506445939</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>126.44965</v>
       </c>
       <c r="I11">
-        <v>0.3195216905992255</v>
+        <v>0.3231336970688258</v>
       </c>
       <c r="J11">
-        <v>0.3359240476840365</v>
+        <v>0.3313784449305509</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>60.83231733333334</v>
+        <v>95.05788666666668</v>
       </c>
       <c r="N11">
-        <v>182.496952</v>
+        <v>285.17366</v>
       </c>
       <c r="O11">
-        <v>0.2679031251727568</v>
+        <v>0.3319322235782747</v>
       </c>
       <c r="P11">
-        <v>0.2785759485989269</v>
+        <v>0.3419012078510756</v>
       </c>
       <c r="Q11">
-        <v>2564.075078496312</v>
+        <v>4006.678832913223</v>
       </c>
       <c r="R11">
-        <v>23076.67570646681</v>
+        <v>36060.109496219</v>
       </c>
       <c r="S11">
-        <v>0.08560085947201519</v>
+        <v>0.107258486581124</v>
       </c>
       <c r="T11">
-        <v>0.09358036024077163</v>
+        <v>0.1132986905775665</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>26.941003</v>
+        <v>32.300192</v>
       </c>
       <c r="H12">
-        <v>80.823009</v>
+        <v>96.900576</v>
       </c>
       <c r="I12">
-        <v>0.2042291495073052</v>
+        <v>0.2476229975407503</v>
       </c>
       <c r="J12">
-        <v>0.2147130682392819</v>
+        <v>0.2539410918713864</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>10.68421466666667</v>
+        <v>13.89934866666667</v>
       </c>
       <c r="N12">
-        <v>32.052644</v>
+        <v>41.69804600000001</v>
       </c>
       <c r="O12">
-        <v>0.04705285980693975</v>
+        <v>0.04853507553134179</v>
       </c>
       <c r="P12">
-        <v>0.04892736897547583</v>
+        <v>0.04999273878390351</v>
       </c>
       <c r="Q12">
-        <v>287.8434593873107</v>
+        <v>448.9516306082774</v>
       </c>
       <c r="R12">
-        <v>2590.591134485796</v>
+        <v>4040.564675474497</v>
       </c>
       <c r="S12">
-        <v>0.009609565540257771</v>
+        <v>0.01201840088893758</v>
       </c>
       <c r="T12">
-        <v>0.01050534551359987</v>
+        <v>0.01269521067242546</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>26.941003</v>
+        <v>32.300192</v>
       </c>
       <c r="H13">
-        <v>80.823009</v>
+        <v>96.900576</v>
       </c>
       <c r="I13">
-        <v>0.2042291495073052</v>
+        <v>0.2476229975407503</v>
       </c>
       <c r="J13">
-        <v>0.2147130682392819</v>
+        <v>0.2539410918713864</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>211.087055</v>
       </c>
       <c r="O13">
-        <v>0.3098730203341347</v>
+        <v>0.245697991654417</v>
       </c>
       <c r="P13">
-        <v>0.3222178559101571</v>
+        <v>0.253077086664408</v>
       </c>
       <c r="Q13">
-        <v>1895.632327338722</v>
+        <v>2272.717468404854</v>
       </c>
       <c r="R13">
-        <v>17060.69094604849</v>
+        <v>20454.45721564368</v>
       </c>
       <c r="S13">
-        <v>0.06328510339810021</v>
+        <v>0.06084047318320899</v>
       </c>
       <c r="T13">
-        <v>0.06918438448395264</v>
+        <v>0.06426667171518925</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>26.941003</v>
+        <v>32.300192</v>
       </c>
       <c r="H14">
-        <v>80.823009</v>
+        <v>96.900576</v>
       </c>
       <c r="I14">
-        <v>0.2042291495073052</v>
+        <v>0.2476229975407503</v>
       </c>
       <c r="J14">
-        <v>0.2147130682392819</v>
+        <v>0.2539410918713864</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>59.09107466666666</v>
+        <v>82.007665</v>
       </c>
       <c r="N14">
-        <v>177.273224</v>
+        <v>246.022995</v>
       </c>
       <c r="O14">
-        <v>0.2602347611759026</v>
+        <v>0.2863622109480123</v>
       </c>
       <c r="P14">
-        <v>0.2706020894912812</v>
+        <v>0.2949625822722868</v>
       </c>
       <c r="Q14">
-        <v>1591.97281986789</v>
+        <v>2648.86332497168</v>
       </c>
       <c r="R14">
-        <v>14327.75537881102</v>
+        <v>23839.76992474512</v>
       </c>
       <c r="S14">
-        <v>0.05314752394719127</v>
+        <v>0.07090986905734348</v>
       </c>
       <c r="T14">
-        <v>0.05810180490663373</v>
+        <v>0.07490312020342815</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>26.941003</v>
+        <v>32.300192</v>
       </c>
       <c r="H15">
-        <v>80.823009</v>
+        <v>96.900576</v>
       </c>
       <c r="I15">
-        <v>0.2042291495073052</v>
+        <v>0.2476229975407503</v>
       </c>
       <c r="J15">
-        <v>0.2147130682392819</v>
+        <v>0.2539410918713864</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>26.0983795</v>
+        <v>25.0501465</v>
       </c>
       <c r="N15">
-        <v>52.196759</v>
+        <v>50.100293</v>
       </c>
       <c r="O15">
-        <v>0.1149362335102661</v>
+        <v>0.0874724982879541</v>
       </c>
       <c r="P15">
-        <v>0.07967673702415903</v>
+        <v>0.06006638442832619</v>
       </c>
       <c r="Q15">
-        <v>703.1165204046384</v>
+        <v>809.1245415781281</v>
       </c>
       <c r="R15">
-        <v>4218.699122427831</v>
+        <v>4854.747249468768</v>
       </c>
       <c r="S15">
-        <v>0.02347332921737469</v>
+        <v>0.02166020222844134</v>
       </c>
       <c r="T15">
-        <v>0.01710763667375157</v>
+        <v>0.01525332324649559</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>26.941003</v>
+        <v>32.300192</v>
       </c>
       <c r="H16">
-        <v>80.823009</v>
+        <v>96.900576</v>
       </c>
       <c r="I16">
-        <v>0.2042291495073052</v>
+        <v>0.2476229975407503</v>
       </c>
       <c r="J16">
-        <v>0.2147130682392819</v>
+        <v>0.2539410918713864</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>60.83231733333334</v>
+        <v>95.05788666666668</v>
       </c>
       <c r="N16">
-        <v>182.496952</v>
+        <v>285.17366</v>
       </c>
       <c r="O16">
-        <v>0.2679031251727568</v>
+        <v>0.3319322235782747</v>
       </c>
       <c r="P16">
-        <v>0.2785759485989269</v>
+        <v>0.3419012078510756</v>
       </c>
       <c r="Q16">
-        <v>1638.883643774285</v>
+        <v>3070.387990447574</v>
       </c>
       <c r="R16">
-        <v>14749.95279396857</v>
+        <v>27633.49191402816</v>
       </c>
       <c r="S16">
-        <v>0.05471362740438126</v>
+        <v>0.08219405218281889</v>
       </c>
       <c r="T16">
-        <v>0.05981389666134408</v>
+        <v>0.08682276603384798</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>19.3233515</v>
+        <v>9.736177999999999</v>
       </c>
       <c r="H17">
-        <v>38.646703</v>
+        <v>19.472356</v>
       </c>
       <c r="I17">
-        <v>0.1464827290385481</v>
+        <v>0.07464047213559308</v>
       </c>
       <c r="J17">
-        <v>0.1026681916589156</v>
+        <v>0.0510299478916239</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>10.68421466666667</v>
+        <v>13.89934866666667</v>
       </c>
       <c r="N17">
-        <v>32.052644</v>
+        <v>41.69804600000001</v>
       </c>
       <c r="O17">
-        <v>0.04705285980693975</v>
+        <v>0.04853507553134179</v>
       </c>
       <c r="P17">
-        <v>0.04892736897547583</v>
+        <v>0.04999273878390351</v>
       </c>
       <c r="Q17">
-        <v>206.4548355054553</v>
+        <v>135.3265327027293</v>
       </c>
       <c r="R17">
-        <v>1238.729013032732</v>
+        <v>811.959196216376</v>
       </c>
       <c r="S17">
-        <v>0.006892431313588746</v>
+        <v>0.003622680952796022</v>
       </c>
       <c r="T17">
-        <v>0.005023284495340633</v>
+        <v>0.002551126855102161</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>19.3233515</v>
+        <v>9.736177999999999</v>
       </c>
       <c r="H18">
-        <v>38.646703</v>
+        <v>19.472356</v>
       </c>
       <c r="I18">
-        <v>0.1464827290385481</v>
+        <v>0.07464047213559308</v>
       </c>
       <c r="J18">
-        <v>0.1026681916589156</v>
+        <v>0.0510299478916239</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>211.087055</v>
       </c>
       <c r="O18">
-        <v>0.3098730203341347</v>
+        <v>0.245697991654417</v>
       </c>
       <c r="P18">
-        <v>0.3222178559101571</v>
+        <v>0.253077086664408</v>
       </c>
       <c r="Q18">
-        <v>1359.636453621611</v>
+        <v>685.0603803252633</v>
       </c>
       <c r="R18">
-        <v>8157.818721729665</v>
+        <v>4110.362281951579</v>
       </c>
       <c r="S18">
-        <v>0.04539104567396155</v>
+        <v>0.0183390140998527</v>
       </c>
       <c r="T18">
-        <v>0.03308152458650886</v>
+        <v>0.01291451054504873</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>19.3233515</v>
+        <v>9.736177999999999</v>
       </c>
       <c r="H19">
-        <v>38.646703</v>
+        <v>19.472356</v>
       </c>
       <c r="I19">
-        <v>0.1464827290385481</v>
+        <v>0.07464047213559308</v>
       </c>
       <c r="J19">
-        <v>0.1026681916589156</v>
+        <v>0.0510299478916239</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>59.09107466666666</v>
+        <v>82.007665</v>
       </c>
       <c r="N19">
-        <v>177.273224</v>
+        <v>246.022995</v>
       </c>
       <c r="O19">
-        <v>0.2602347611759026</v>
+        <v>0.2863622109480123</v>
       </c>
       <c r="P19">
-        <v>0.2706020894912812</v>
+        <v>0.2949625822722868</v>
       </c>
       <c r="Q19">
-        <v>1141.837606296745</v>
+        <v>798.4412238043699</v>
       </c>
       <c r="R19">
-        <v>6851.025637780473</v>
+        <v>4790.64734282622</v>
       </c>
       <c r="S19">
-        <v>0.03811989800774101</v>
+        <v>0.02137421062695194</v>
       </c>
       <c r="T19">
-        <v>0.02778222718719389</v>
+        <v>0.01505192520333362</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>19.3233515</v>
+        <v>9.736177999999999</v>
       </c>
       <c r="H20">
-        <v>38.646703</v>
+        <v>19.472356</v>
       </c>
       <c r="I20">
-        <v>0.1464827290385481</v>
+        <v>0.07464047213559308</v>
       </c>
       <c r="J20">
-        <v>0.1026681916589156</v>
+        <v>0.0510299478916239</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>26.0983795</v>
+        <v>25.0501465</v>
       </c>
       <c r="N20">
-        <v>52.196759</v>
+        <v>50.100293</v>
       </c>
       <c r="O20">
-        <v>0.1149362335102661</v>
+        <v>0.0874724982879541</v>
       </c>
       <c r="P20">
-        <v>0.07967673702415903</v>
+        <v>0.06006638442832619</v>
       </c>
       <c r="Q20">
-        <v>504.3081606588943</v>
+        <v>243.892685250077</v>
       </c>
       <c r="R20">
-        <v>2017.232642635577</v>
+        <v>975.5707410003079</v>
       </c>
       <c r="S20">
-        <v>0.01683617314999561</v>
+        <v>0.006528988571092752</v>
       </c>
       <c r="T20">
-        <v>0.008180266507553376</v>
+        <v>0.003065184467415734</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>19.3233515</v>
+        <v>9.736177999999999</v>
       </c>
       <c r="H21">
-        <v>38.646703</v>
+        <v>19.472356</v>
       </c>
       <c r="I21">
-        <v>0.1464827290385481</v>
+        <v>0.07464047213559308</v>
       </c>
       <c r="J21">
-        <v>0.1026681916589156</v>
+        <v>0.0510299478916239</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>60.83231733333334</v>
+        <v>95.05788666666668</v>
       </c>
       <c r="N21">
-        <v>182.496952</v>
+        <v>285.17366</v>
       </c>
       <c r="O21">
-        <v>0.2679031251727568</v>
+        <v>0.3319322235782747</v>
       </c>
       <c r="P21">
-        <v>0.2785759485989269</v>
+        <v>0.3419012078510756</v>
       </c>
       <c r="Q21">
-        <v>1175.484250391543</v>
+        <v>925.5005048904933</v>
       </c>
       <c r="R21">
-        <v>7052.905502349257</v>
+        <v>5553.00302934296</v>
       </c>
       <c r="S21">
-        <v>0.03924318089326117</v>
+        <v>0.02477557788489966</v>
       </c>
       <c r="T21">
-        <v>0.02860088888231885</v>
+        <v>0.01744720082072366</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>33.430692</v>
+        <v>36.79199966666667</v>
       </c>
       <c r="H22">
-        <v>100.292076</v>
+        <v>110.375999</v>
       </c>
       <c r="I22">
-        <v>0.2534249298216801</v>
+        <v>0.2820585476079611</v>
       </c>
       <c r="J22">
-        <v>0.2664342694547198</v>
+        <v>0.2892552641013719</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>10.68421466666667</v>
+        <v>13.89934866666667</v>
       </c>
       <c r="N22">
-        <v>32.052644</v>
+        <v>41.69804600000001</v>
       </c>
       <c r="O22">
-        <v>0.04705285980693975</v>
+        <v>0.04853507553134179</v>
       </c>
       <c r="P22">
-        <v>0.04892736897547583</v>
+        <v>0.04999273878390351</v>
       </c>
       <c r="Q22">
-        <v>357.1806897832161</v>
+        <v>511.3848315108839</v>
       </c>
       <c r="R22">
-        <v>3214.626208048944</v>
+        <v>4602.463483597955</v>
       </c>
       <c r="S22">
-        <v>0.01192436769448306</v>
+        <v>0.01368973291241296</v>
       </c>
       <c r="T22">
-        <v>0.01303592780932243</v>
+        <v>0.01446066286008891</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>33.430692</v>
+        <v>36.79199966666667</v>
       </c>
       <c r="H23">
-        <v>100.292076</v>
+        <v>110.375999</v>
       </c>
       <c r="I23">
-        <v>0.2534249298216801</v>
+        <v>0.2820585476079611</v>
       </c>
       <c r="J23">
-        <v>0.2664342694547198</v>
+        <v>0.2892552641013719</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>211.087055</v>
       </c>
       <c r="O23">
-        <v>0.3098730203341347</v>
+        <v>0.245697991654417</v>
       </c>
       <c r="P23">
-        <v>0.3222178559101571</v>
+        <v>0.253077086664408</v>
       </c>
       <c r="Q23">
-        <v>2352.26210696402</v>
+        <v>2588.771619065883</v>
       </c>
       <c r="R23">
-        <v>21170.35896267618</v>
+        <v>23298.94457159295</v>
       </c>
       <c r="S23">
-        <v>0.07852954843181012</v>
+        <v>0.06930121867623781</v>
       </c>
       <c r="T23">
-        <v>0.08584987904468887</v>
+        <v>0.07320387954111911</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>33.430692</v>
+        <v>36.79199966666667</v>
       </c>
       <c r="H24">
-        <v>100.292076</v>
+        <v>110.375999</v>
       </c>
       <c r="I24">
-        <v>0.2534249298216801</v>
+        <v>0.2820585476079611</v>
       </c>
       <c r="J24">
-        <v>0.2664342694547198</v>
+        <v>0.2892552641013719</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>59.09107466666666</v>
+        <v>82.007665</v>
       </c>
       <c r="N24">
-        <v>177.273224</v>
+        <v>246.022995</v>
       </c>
       <c r="O24">
-        <v>0.2602347611759026</v>
+        <v>0.2863622109480123</v>
       </c>
       <c r="P24">
-        <v>0.2706020894912812</v>
+        <v>0.2949625822722868</v>
       </c>
       <c r="Q24">
-        <v>1975.455517130336</v>
+        <v>3017.225983344112</v>
       </c>
       <c r="R24">
-        <v>17779.09965417302</v>
+        <v>27155.03385009701</v>
       </c>
       <c r="S24">
-        <v>0.06594997608816477</v>
+        <v>0.08077090930980094</v>
       </c>
       <c r="T24">
-        <v>0.07209767002653023</v>
+        <v>0.08531947963519294</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>33.430692</v>
+        <v>36.79199966666667</v>
       </c>
       <c r="H25">
-        <v>100.292076</v>
+        <v>110.375999</v>
       </c>
       <c r="I25">
-        <v>0.2534249298216801</v>
+        <v>0.2820585476079611</v>
       </c>
       <c r="J25">
-        <v>0.2664342694547198</v>
+        <v>0.2892552641013719</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>26.0983795</v>
+        <v>25.0501465</v>
       </c>
       <c r="N25">
-        <v>52.196759</v>
+        <v>50.100293</v>
       </c>
       <c r="O25">
-        <v>0.1149362335102661</v>
+        <v>0.0874724982879541</v>
       </c>
       <c r="P25">
-        <v>0.07967673702415903</v>
+        <v>0.06006638442832619</v>
       </c>
       <c r="Q25">
-        <v>872.4868867636141</v>
+        <v>921.6449816779513</v>
       </c>
       <c r="R25">
-        <v>5234.921320581684</v>
+        <v>5529.869890067707</v>
       </c>
       <c r="S25">
-        <v>0.02912770691130743</v>
+        <v>0.0246723658227402</v>
       </c>
       <c r="T25">
-        <v>0.02122861322156764</v>
+        <v>0.01737451789143002</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>33.430692</v>
+        <v>36.79199966666667</v>
       </c>
       <c r="H26">
-        <v>100.292076</v>
+        <v>110.375999</v>
       </c>
       <c r="I26">
-        <v>0.2534249298216801</v>
+        <v>0.2820585476079611</v>
       </c>
       <c r="J26">
-        <v>0.2664342694547198</v>
+        <v>0.2892552641013719</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>60.83231733333334</v>
+        <v>95.05788666666668</v>
       </c>
       <c r="N26">
-        <v>182.496952</v>
+        <v>285.17366</v>
       </c>
       <c r="O26">
-        <v>0.2679031251727568</v>
+        <v>0.3319322235782747</v>
       </c>
       <c r="P26">
-        <v>0.2785759485989269</v>
+        <v>0.3419012078510756</v>
       </c>
       <c r="Q26">
-        <v>2033.666464416928</v>
+        <v>3497.369734554038</v>
       </c>
       <c r="R26">
-        <v>18302.99817975235</v>
+        <v>31476.32761098635</v>
       </c>
       <c r="S26">
-        <v>0.06789333069591467</v>
+        <v>0.09362432088676918</v>
       </c>
       <c r="T26">
-        <v>0.07422217935261068</v>
+        <v>0.09889672417354092</v>
       </c>
     </row>
   </sheetData>
